--- a/public/files/tamplate-import-buyers.xlsx
+++ b/public/files/tamplate-import-buyers.xlsx
@@ -8,24 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danangr\Desktop\dsaauser10\eksporyuk-graphql-backend\assets\import-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A573F4E3-D86F-4752-87ED-269CFF20DD71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CC9EB7-A64E-4CF9-B563-0D131D7CF68B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4200" yWindow="4410" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="buyers" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="119">
   <si>
     <t>NAMA BUYER</t>
   </si>
@@ -51,9 +46,6 @@
     <t>QUANTITY REQUIRED</t>
   </si>
   <si>
-    <t>WEIGHT</t>
-  </si>
-  <si>
     <t>PRICE</t>
   </si>
   <si>
@@ -81,12 +73,6 @@
     <t>toties architecto sui</t>
   </si>
   <si>
-    <t>pcs</t>
-  </si>
-  <si>
-    <t>204421</t>
-  </si>
-  <si>
     <t>FOB</t>
   </si>
   <si>
@@ -111,12 +97,6 @@
     <t>ait comes angelus</t>
   </si>
   <si>
-    <t>kg</t>
-  </si>
-  <si>
-    <t>220769</t>
-  </si>
-  <si>
     <t>DAT</t>
   </si>
   <si>
@@ -141,12 +121,6 @@
     <t>amiculum mollitia ultio</t>
   </si>
   <si>
-    <t>ton</t>
-  </si>
-  <si>
-    <t>104811</t>
-  </si>
-  <si>
     <t>CPT</t>
   </si>
   <si>
@@ -171,9 +145,6 @@
     <t>terra rerum approbo</t>
   </si>
   <si>
-    <t>684800</t>
-  </si>
-  <si>
     <t>EXW</t>
   </si>
   <si>
@@ -333,6 +304,47 @@
     <t>CFR</t>
   </si>
   <si>
+    <t>2 - 5 Kilogram/Kilograms</t>
+  </si>
+  <si>
+    <t>3 - 5 Kilogram/Kilograms</t>
+  </si>
+  <si>
+    <t>4 - 5 Kilogram/Kilograms</t>
+  </si>
+  <si>
+    <t>5 - 5 Kilogram/Kilograms</t>
+  </si>
+  <si>
+    <t>6 - 5 Kilogram/Kilograms</t>
+  </si>
+  <si>
+    <t>7 - 5 Kilogram/Kilograms</t>
+  </si>
+  <si>
+    <t>8 - 5 Kilogram/Kilograms</t>
+  </si>
+  <si>
+    <t>9 - 5 Kilogram/Kilograms</t>
+  </si>
+  <si>
+    <t>10 - 5 Kilogram/Kilograms</t>
+  </si>
+  <si>
+    <t>11 - 5 Kilogram/Kilograms</t>
+  </si>
+  <si>
+    <t>SPESIFICATION</t>
+  </si>
+  <si>
+    <t>Form: Dried
+Part: Aerial part (or whole plant) of Bacopa monnieri
+Part: Root of Withania somnifera</t>
+  </si>
+  <si>
+    <t>Negotiated</t>
+  </si>
+  <si>
     <t>HS CODE</t>
   </si>
   <si>
@@ -348,6 +360,9 @@
     <t>222</t>
   </si>
   <si>
+    <t>010100</t>
+  </si>
+  <si>
     <t>010101</t>
   </si>
   <si>
@@ -360,7 +375,10 @@
     <t>010104</t>
   </si>
   <si>
-    <t>010100</t>
+    <t>PAYMENT TERMS</t>
+  </si>
+  <si>
+    <t>LC/TT 70%</t>
   </si>
 </sst>
 </file>
@@ -402,8 +420,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -598,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,12 +631,13 @@
     <col min="2" max="6" width="40" customWidth="1"/>
     <col min="7" max="7" width="30.42578125" customWidth="1"/>
     <col min="8" max="8" width="24.85546875" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="9" max="9" width="33.140625" customWidth="1"/>
     <col min="10" max="11" width="40" customWidth="1"/>
-    <col min="12" max="12" width="35" style="1" customWidth="1"/>
+    <col min="12" max="12" width="23.85546875" customWidth="1"/>
+    <col min="13" max="13" width="46.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -641,396 +663,429 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J3" t="s">
+        <v>106</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="M3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J4" t="s">
+        <v>106</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1221</v>
+      </c>
+      <c r="M4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="M5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="M6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" t="s">
+        <v>100</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="M8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" t="s">
+        <v>101</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="M9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" t="s">
         <v>102</v>
       </c>
+      <c r="I10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="M10" t="s">
+        <v>118</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2">
-        <v>315</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="1" t="s">
+    <row r="11" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4">
-        <v>558</v>
-      </c>
-      <c r="I4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5">
-        <v>85</v>
-      </c>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" t="s">
-        <v>49</v>
-      </c>
-      <c r="L5" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6">
-        <v>974</v>
-      </c>
-      <c r="I6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" t="s">
-        <v>58</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7">
-        <v>347</v>
-      </c>
-      <c r="I7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" t="s">
-        <v>66</v>
-      </c>
-      <c r="K7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8">
-        <v>194</v>
-      </c>
-      <c r="I8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" t="s">
-        <v>75</v>
-      </c>
-      <c r="K8" t="s">
-        <v>58</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" t="s">
-        <v>82</v>
-      </c>
-      <c r="H9">
-        <v>945</v>
-      </c>
-      <c r="I9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" t="s">
-        <v>88</v>
-      </c>
-      <c r="F10" t="s">
-        <v>89</v>
-      </c>
-      <c r="G10" t="s">
-        <v>90</v>
-      </c>
-      <c r="H10">
-        <v>299</v>
-      </c>
-      <c r="I10" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" t="s">
-        <v>91</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="J11" t="s">
         <v>92</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="K11" t="s">
         <v>93</v>
       </c>
-      <c r="B11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E11" t="s">
-        <v>97</v>
-      </c>
-      <c r="F11" t="s">
-        <v>98</v>
-      </c>
-      <c r="G11" t="s">
-        <v>99</v>
-      </c>
-      <c r="H11">
-        <v>467</v>
-      </c>
-      <c r="I11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" t="s">
-        <v>100</v>
-      </c>
-      <c r="K11" t="s">
-        <v>101</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>110</v>
+      <c r="L11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
